--- a/5. Student Level Prediction Using Machine Learning/student_grade_predictor/Only_SVM/feature_encoding_info.xlsx
+++ b/5. Student Level Prediction Using Machine Learning/student_grade_predictor/Only_SVM/feature_encoding_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,651 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Current_Year_1718</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FS1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Current_Year_1718</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FS2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Current_Year_1718</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Grade 1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Current_Year_1718</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Grade 10</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Current_Year_1718</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grade 11</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Current_Year_1718</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Grade 12</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Current_Year_1718</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Grade 2</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Current_Year_1718</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Grade 3</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Current_Year_1718</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Grade 4</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Current_Year_1718</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Grade 5</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Current_Year_1718</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Grade 6</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Current_Year_1718</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Grade 7</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Current_Year_1718</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Grade 8</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Current_Year_1718</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Grade 9</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Current_Year_1718</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>KG1</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Current_Year_1718</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>KG2</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Proposed_YearGrade_1819</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FS2</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Proposed_YearGrade_1819</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Grade 1</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Proposed_YearGrade_1819</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Grade 10</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Proposed_YearGrade_1819</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Grade 11</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Proposed_YearGrade_1819</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Grade 12</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Proposed_YearGrade_1819</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Grade 13</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Proposed_YearGrade_1819</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Grade 2</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Proposed_YearGrade_1819</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Grade 3</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Proposed_YearGrade_1819</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Grade 4</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Proposed_YearGrade_1819</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Grade 5</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Proposed_YearGrade_1819</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Grade 6</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Proposed_YearGrade_1819</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Grade 7</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Proposed_YearGrade_1819</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Grade 8</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Proposed_YearGrade_1819</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Grade 9</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Proposed_YearGrade_1819</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>KG2</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Year_of_Admission</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Current Student</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Year_of_Admission</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>New Admission 18/19</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Previous_Curriculum_17182</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>American</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Previous_Curriculum_17182</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>British</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Current_School</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>School 1</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Current_School</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>School 2</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Current_Curriculum</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>American</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Current_Curriculum</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>British</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Previous_yearGrade</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Grade System</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Previous_yearGrade</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Year System</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
